--- a/Hoàng/Chấm công/04-2025/XÁC NHẬN NGÀY CÔNG 04-2025 - NGUYỄN BÁ ĐỨC HOÀNG (đợt 2).xlsx
+++ b/Hoàng/Chấm công/04-2025/XÁC NHẬN NGÀY CÔNG 04-2025 - NGUYỄN BÁ ĐỨC HOÀNG (đợt 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\Chấm công\04-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0EF564-FEED-4EBB-95A3-03B0C3288499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969272E-55EF-4772-B8BC-99AD43C91531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="T4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'T4'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'T4'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Địa chỉ: 276-278, Đống Đa, P Thanh Bình, Q Hải Châu, TP Đà Nẵng</t>
-  </si>
-  <si>
     <t>Họ và Tên</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>CÔNG TY CỔ PHẦN Y KHOA THIỆN NHÂN</t>
   </si>
   <si>
-    <t xml:space="preserve">Bộ phận: </t>
-  </si>
-  <si>
     <t>Ngày công</t>
   </si>
   <si>
@@ -113,7 +107,13 @@
     <t>Ngày 03 tháng 05 năm 2025</t>
   </si>
   <si>
-    <t>CHẤM CÔNG GIỮA GIỜ ĐỂ XEM CÔNG TRONG THÁNG, NHƯNG MÁY CHẤM KHÔNG GHI NHẬN ĐỦ CÔNG</t>
+    <t>Địa chỉ: 276-278-280, Đống Đa, P Thanh Bình, Q Hải Châu, TP Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Bộ phận: Kinh doanh khách đoàn</t>
+  </si>
+  <si>
+    <t>Chấm công giữa giờ để xem công trong tháng, nhưng máy chấm công không ghi nhận đủ công</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,54 +208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -268,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -276,43 +228,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,10 +575,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -652,117 +595,108 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+    <row r="13" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+    <row r="14" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="G14" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:7" ht="57.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.12" footer="0"/>
